--- a/static/products.xlsx
+++ b/static/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>steel rod</t>
   </si>
   <si>
-    <t>quality 3</t>
-  </si>
-  <si>
-    <t>quality 2</t>
+    <t>good quality</t>
+  </si>
+  <si>
+    <t>perfect condition</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -391,7 +396,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -399,7 +410,13 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/static/products.xlsx
+++ b/static/products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLPHIX ELECTRONICS\Documents\python\quantity_survey\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\python\Quantity-Survey\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -38,16 +38,52 @@
     <t>description</t>
   </si>
   <si>
-    <t>cement</t>
-  </si>
-  <si>
-    <t>steel rod</t>
-  </si>
-  <si>
     <t>good quality</t>
   </si>
   <si>
     <t>perfect condition</t>
+  </si>
+  <si>
+    <t>open sections</t>
+  </si>
+  <si>
+    <t>square rectangular tubes</t>
+  </si>
+  <si>
+    <t>round pipes</t>
+  </si>
+  <si>
+    <t>steel bar</t>
+  </si>
+  <si>
+    <t>barbed wires</t>
+  </si>
+  <si>
+    <t>nails</t>
+  </si>
+  <si>
+    <t>curved sheets</t>
+  </si>
+  <si>
+    <t>tile ridge cap</t>
+  </si>
+  <si>
+    <t>high profile</t>
+  </si>
+  <si>
+    <t>ondulee</t>
+  </si>
+  <si>
+    <t>super echo profile</t>
+  </si>
+  <si>
+    <t>tileform sheet</t>
+  </si>
+  <si>
+    <t>wave tileform sheet</t>
+  </si>
+  <si>
+    <t>galvanised sheet</t>
   </si>
 </sst>
 </file>
@@ -365,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +430,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -403,12 +439,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>39</v>
@@ -417,7 +453,189 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3040</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>938</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>9395</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
